--- a/biology/Botanique/Chancre_nectrien/Chancre_nectrien.xlsx
+++ b/biology/Botanique/Chancre_nectrien/Chancre_nectrien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le chancre nectrien, aussi appelé « chancre européen » ou « chancre des arbres fruitiers à pépins », est une maladie cryptogamique provoquée par Neonectria ditissima (synonyme Nectria ditissima) ou Nectria galligena. Elle se produit soit sur le bois, touchant les rameaux jeunes et les grosses branches, soit sur les fruits. Une espèce proche mais moins agressive Nectria cinnabarina est responsable du dépérissement nectrien.
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'attaque des rameaux consiste tout d'abord en une petite tache déprimée sur les pousses de l'année ou celles qui sont âgées d'un an. À cet endroit, l'écorce brunit ou prend une coloration rougeâtre brillante. L'attaque a lieu très souvent à la base d'un bourgeon ou, s'il s'agit d'un rameau suffisamment développé, à la base d'un dard. Quelquefois aussi, la pénétration se réalise au niveau des lenticelles. Les plaies accidentelles (plaies de taille, fentes de greffe, blessures diverses) ou même les points d'attache des fruits cueillis peuvent servir de porte d'entrée. La zone déprimée s'étend en un chancre de forme elliptique avec des stries concentriques autour du point d'infection. L'écorce détruite laisse le bois nu au centre de la lésion. Le chancre ainsi formé donne l'apparence d'une "coquille d'huître". Ces fissures successives correspondent à la fois à la réaction du parasite et à celle de l'arbre.
 L'action de Nectria se traduit par la destruction de bourgeons et de petits rameaux ainsi que l'apparition de plaies chancreuses dont la formation s'étend sur plusieurs années.
@@ -549,9 +563,11 @@
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Éviter les blessures causées à l'écorce, notamment par une mauvaise technique de taille ou des outils de jardinage mal désinfectés. Un arbre qui souffre de sècheresse ou cultivé dans une terre inadaptée sera plus sensible à l'infection[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Éviter les blessures causées à l'écorce, notamment par une mauvaise technique de taille ou des outils de jardinage mal désinfectés. Un arbre qui souffre de sècheresse ou cultivé dans une terre inadaptée sera plus sensible à l'infection.
 </t>
         </is>
       </c>
@@ -582,10 +598,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Méthode physique
-Les pousses et les rameaux desséchés de même que les rameaux ceinturés par un chancre doivent être coupés, enlevés hors du verger puis brûlés avant le départ de la végétation. Une deuxième opération consiste en un curetage mécanique des grosses plaies chancreuses à la serpette et à la brosse métallique (on peut ensuite enduire les plaies d'une spécialité à base d'oxyde de cuivre). Ces deux opérations doivent être effectuées en hiver puis tout au long de la nouvelle saison.
-Méthode chimique
-Aucune méthode chimique n'est proposée en France. En revanche, en Angleterre, certains auteurs proposent l'application d'oxychlorure de cuivre au moment de la chute des feuilles ou l'application de benzimidazoles (carbendazime ou thiophanate-méthvl) au printemps.
+          <t>Méthode physique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pousses et les rameaux desséchés de même que les rameaux ceinturés par un chancre doivent être coupés, enlevés hors du verger puis brûlés avant le départ de la végétation. Une deuxième opération consiste en un curetage mécanique des grosses plaies chancreuses à la serpette et à la brosse métallique (on peut ensuite enduire les plaies d'une spécialité à base d'oxyde de cuivre). Ces deux opérations doivent être effectuées en hiver puis tout au long de la nouvelle saison.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chancre_nectrien</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chancre_nectrien</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Méthode chimique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aucune méthode chimique n'est proposée en France. En revanche, en Angleterre, certains auteurs proposent l'application d'oxychlorure de cuivre au moment de la chute des feuilles ou l'application de benzimidazoles (carbendazime ou thiophanate-méthvl) au printemps.
 </t>
         </is>
       </c>
